--- a/L_Projektionswege_im_Klimawandel_18022020_export.xlsx
+++ b/L_Projektionswege_im_Klimawandel_18022020_export.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\develops\sensitivewaldstandorteCH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600526E0-C0A1-4AA5-83B8-452E08114CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5BAE11A-5BAF-4B5B-82D2-BA178C961D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2661,7 +2661,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>500</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>500</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>500</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>500</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>500</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>500</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>500</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>500</v>
       </c>
@@ -3827,7 +3827,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>500</v>
       </c>
@@ -14637,7 +14637,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="525" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
         <v>500</v>
       </c>
@@ -44679,7 +44679,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="1782" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1782" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1782" s="1" t="s">
         <v>500</v>
       </c>
@@ -44739,7 +44739,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1784" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1784" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1784" s="1" t="s">
         <v>500</v>
       </c>
@@ -44799,7 +44799,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="1786" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1786" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1786" s="1" t="s">
         <v>500</v>
       </c>
@@ -44823,7 +44823,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1787" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1787" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1787" s="1" t="s">
         <v>500</v>
       </c>
@@ -44847,7 +44847,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1788" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1788" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1788" s="1" t="s">
         <v>500</v>
       </c>
@@ -44869,7 +44869,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="1789" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1789" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1789" s="1" t="s">
         <v>500</v>
       </c>
@@ -44891,7 +44891,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="1790" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1790" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1790" s="1" t="s">
         <v>500</v>
       </c>
@@ -44913,7 +44913,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="1791" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1791" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1791" s="1" t="s">
         <v>500</v>
       </c>
@@ -44935,7 +44935,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="1792" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1792" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1792" s="1" t="s">
         <v>500</v>
       </c>
@@ -44963,7 +44963,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="1793" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1793" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1793" s="1" t="s">
         <v>500</v>
       </c>
@@ -44991,7 +44991,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="1794" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1794" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1794" s="1" t="s">
         <v>500</v>
       </c>
@@ -45015,7 +45015,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="1795" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1795" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1795" s="1" t="s">
         <v>500</v>
       </c>
@@ -45777,7 +45777,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="1825" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1825" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1825" s="1" t="s">
         <v>500</v>
       </c>
@@ -45807,7 +45807,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="1826" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1826" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1826" s="1" t="s">
         <v>500</v>
       </c>
@@ -45837,7 +45837,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="1827" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1827" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1827" s="1" t="s">
         <v>500</v>
       </c>
@@ -45861,7 +45861,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1828" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1828" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1828" s="1" t="s">
         <v>500</v>
       </c>
@@ -45885,7 +45885,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1829" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1829" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1829" s="1" t="s">
         <v>500</v>
       </c>
@@ -45907,7 +45907,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="1830" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1830" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1830" s="1" t="s">
         <v>500</v>
       </c>
@@ -45929,7 +45929,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="1831" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1831" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1831" s="1" t="s">
         <v>500</v>
       </c>
@@ -45951,7 +45951,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="1832" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1832" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1832" s="1" t="s">
         <v>500</v>
       </c>
@@ -45973,7 +45973,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="1833" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1833" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1833" s="1" t="s">
         <v>500</v>
       </c>
@@ -46001,7 +46001,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="1834" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1834" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1834" s="1" t="s">
         <v>500</v>
       </c>
@@ -46029,7 +46029,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="1835" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1835" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1835" s="1" t="s">
         <v>500</v>
       </c>
@@ -46053,7 +46053,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="1836" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1836" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1836" s="1" t="s">
         <v>500</v>
       </c>
@@ -50230,10 +50230,7 @@
     </filterColumn>
     <filterColumn colId="2">
       <filters>
-        <filter val="17"/>
-        <filter val="18w"/>
-        <filter val="60*"/>
-        <filter val="60*Ta"/>
+        <filter val="26"/>
       </filters>
     </filterColumn>
     <filterColumn colId="4">

--- a/L_Projektionswege_im_Klimawandel_18022020_export.xlsx
+++ b/L_Projektionswege_im_Klimawandel_18022020_export.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\develops\sensitivewaldstandorteCH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5BAE11A-5BAF-4B5B-82D2-BA178C961D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB86D68-6BAE-41FF-AB0F-FDD884BAA682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TreeApp_export" sheetId="9" r:id="rId1"/>
@@ -3681,7 +3681,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>500</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>500</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>500</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>500</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>500</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>500</v>
       </c>
@@ -3827,7 +3827,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>500</v>
       </c>
@@ -13043,7 +13043,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="462" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
         <v>500</v>
       </c>
@@ -13313,7 +13313,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="473" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
         <v>500</v>
       </c>
@@ -50230,7 +50230,8 @@
     </filterColumn>
     <filterColumn colId="2">
       <filters>
-        <filter val="26"/>
+        <filter val="10a"/>
+        <filter val="12e"/>
       </filters>
     </filterColumn>
     <filterColumn colId="4">

--- a/L_Projektionswege_im_Klimawandel_18022020_export.xlsx
+++ b/L_Projektionswege_im_Klimawandel_18022020_export.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\develops\sensitivewaldstandorteCH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB86D68-6BAE-41FF-AB0F-FDD884BAA682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CE2FAA-0A71-43E3-9E99-28926B0F8F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38565" yWindow="90" windowWidth="19215" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TreeApp_export" sheetId="9" r:id="rId1"/>
@@ -1945,7 +1945,7 @@
   <dimension ref="A1:J2002"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C1833" sqref="C1833"/>
     </sheetView>
   </sheetViews>
@@ -2533,7 +2533,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>500</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>500</v>
       </c>
@@ -13043,7 +13043,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
         <v>500</v>
       </c>
@@ -13313,7 +13313,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
         <v>500</v>
       </c>
@@ -50230,8 +50230,7 @@
     </filterColumn>
     <filterColumn colId="2">
       <filters>
-        <filter val="10a"/>
-        <filter val="12e"/>
+        <filter val="15"/>
       </filters>
     </filterColumn>
     <filterColumn colId="4">

--- a/L_Projektionswege_im_Klimawandel_18022020_export.xlsx
+++ b/L_Projektionswege_im_Klimawandel_18022020_export.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\develops\sensitivewaldstandorteCH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CE2FAA-0A71-43E3-9E99-28926B0F8F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23058C78-DBA6-4299-9B91-43DAE3392C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38565" yWindow="90" windowWidth="19215" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57330" yWindow="8370" windowWidth="19215" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TreeApp_export" sheetId="9" r:id="rId1"/>
@@ -2533,7 +2533,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>500</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>500</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>500</v>
       </c>
@@ -3877,7 +3877,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>500</v>
       </c>
@@ -20953,7 +20953,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="788" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A788" s="1" t="s">
         <v>500</v>
       </c>
@@ -50230,7 +50230,8 @@
     </filterColumn>
     <filterColumn colId="2">
       <filters>
-        <filter val="15"/>
+        <filter val="27"/>
+        <filter val="27h"/>
       </filters>
     </filterColumn>
     <filterColumn colId="4">

--- a/L_Projektionswege_im_Klimawandel_18022020_export.xlsx
+++ b/L_Projektionswege_im_Klimawandel_18022020_export.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\develops\sensitivewaldstandorteCH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23058C78-DBA6-4299-9B91-43DAE3392C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178F90B8-9F4E-4B41-AF66-6108418D3E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57330" yWindow="8370" windowWidth="19215" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TreeApp_export" sheetId="9" r:id="rId1"/>
@@ -1945,7 +1945,7 @@
   <dimension ref="A1:J2002"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C1833" sqref="C1833"/>
     </sheetView>
   </sheetViews>
@@ -3851,7 +3851,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>500</v>
       </c>
@@ -3877,7 +3877,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>500</v>
       </c>
@@ -20953,7 +20953,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="788" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A788" s="1" t="s">
         <v>500</v>
       </c>
@@ -40773,7 +40773,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="1633" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1633" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1633" s="1" t="s">
         <v>500</v>
       </c>
@@ -40797,7 +40797,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1634" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1634" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1634" s="1" t="s">
         <v>500</v>
       </c>
@@ -40819,7 +40819,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="1635" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1635" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1635" s="1" t="s">
         <v>500</v>
       </c>
@@ -40841,7 +40841,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="1636" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1636" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1636" s="1" t="s">
         <v>500</v>
       </c>
@@ -40869,7 +40869,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="1637" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1637" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1637" s="1" t="s">
         <v>500</v>
       </c>
@@ -50230,8 +50230,7 @@
     </filterColumn>
     <filterColumn colId="2">
       <filters>
-        <filter val="27"/>
-        <filter val="27h"/>
+        <filter val="57BlTa"/>
       </filters>
     </filterColumn>
     <filterColumn colId="4">

--- a/L_Projektionswege_im_Klimawandel_18022020_export.xlsx
+++ b/L_Projektionswege_im_Klimawandel_18022020_export.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\develops\sensitivewaldstandorteCH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178F90B8-9F4E-4B41-AF66-6108418D3E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0ABDBA3-D40C-48F4-8142-6739C4264A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="56610" yWindow="840" windowWidth="19215" windowHeight="19875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TreeApp_export" sheetId="9" r:id="rId1"/>
@@ -1945,8 +1945,8 @@
   <dimension ref="A1:J2002"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1833" sqref="C1833"/>
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4149,7 +4149,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>500</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>500</v>
       </c>
@@ -40773,7 +40773,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="1633" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1633" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1633" s="1" t="s">
         <v>500</v>
       </c>
@@ -40797,7 +40797,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1634" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1634" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1634" s="1" t="s">
         <v>500</v>
       </c>
@@ -40819,7 +40819,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="1635" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1635" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1635" s="1" t="s">
         <v>500</v>
       </c>
@@ -40841,7 +40841,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="1636" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1636" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1636" s="1" t="s">
         <v>500</v>
       </c>
@@ -40869,7 +40869,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="1637" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1637" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1637" s="1" t="s">
         <v>500</v>
       </c>
@@ -50230,7 +50230,7 @@
     </filterColumn>
     <filterColumn colId="2">
       <filters>
-        <filter val="57BlTa"/>
+        <filter val="28"/>
       </filters>
     </filterColumn>
     <filterColumn colId="4">

--- a/L_Projektionswege_im_Klimawandel_18022020_export.xlsx
+++ b/L_Projektionswege_im_Klimawandel_18022020_export.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\develops\sensitivewaldstandorteCH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA35EFB6-8580-449D-B28C-3FC6E523483B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9325601E-8AD0-449E-91E4-4D3A13EDA048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51795" yWindow="465" windowWidth="21690" windowHeight="19530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39570" yWindow="1170" windowWidth="21690" windowHeight="19530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TreeApp_export" sheetId="9" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TreeApp_export!$A$1:$J$2002</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1945,7 +1945,7 @@
   <dimension ref="A1:J2002"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A462" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -3681,7 +3681,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>500</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>500</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>500</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>500</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>500</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>500</v>
       </c>
@@ -3827,7 +3827,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>500</v>
       </c>
@@ -13043,7 +13043,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="462" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
         <v>500</v>
       </c>
@@ -20075,7 +20075,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="752" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A752" s="1" t="s">
         <v>500</v>
       </c>
@@ -20099,7 +20099,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="753" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A753" s="1" t="s">
         <v>500</v>
       </c>
@@ -20121,7 +20121,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="754" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A754" s="1" t="s">
         <v>500</v>
       </c>
@@ -20143,7 +20143,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="755" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A755" s="1" t="s">
         <v>500</v>
       </c>
@@ -20171,7 +20171,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="756" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A756" s="1" t="s">
         <v>500</v>
       </c>
@@ -20199,7 +20199,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="757" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A757" s="1" t="s">
         <v>500</v>
       </c>
@@ -50230,8 +50230,7 @@
     </filterColumn>
     <filterColumn colId="2">
       <filters>
-        <filter val="26"/>
-        <filter val="26h"/>
+        <filter val="10a"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/L_Projektionswege_im_Klimawandel_18022020_export.xlsx
+++ b/L_Projektionswege_im_Klimawandel_18022020_export.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\develops\sensitivewaldstandorteCH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9325601E-8AD0-449E-91E4-4D3A13EDA048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F763FB-674C-4C01-AC6F-616E9BF5F967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39570" yWindow="1170" windowWidth="21690" windowHeight="19530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="53730" yWindow="1410" windowWidth="21690" windowHeight="19530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TreeApp_export" sheetId="9" r:id="rId1"/>
@@ -1945,8 +1945,8 @@
   <dimension ref="A1:J2002"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A462" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <pane ySplit="1" topLeftCell="A189" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6377,7 +6377,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>500</v>
       </c>
@@ -6403,7 +6403,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>500</v>
       </c>
@@ -6429,7 +6429,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>500</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>500</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>500</v>
       </c>
@@ -6495,7 +6495,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>500</v>
       </c>
@@ -6517,7 +6517,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>500</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>500</v>
       </c>
@@ -6573,7 +6573,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>500</v>
       </c>
@@ -6601,7 +6601,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>500</v>
       </c>
@@ -6625,7 +6625,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>500</v>
       </c>
@@ -13043,7 +13043,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
         <v>500</v>
       </c>
@@ -41899,7 +41899,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="1675" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1675" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1675" s="1" t="s">
         <v>500</v>
       </c>
@@ -41929,7 +41929,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="1676" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1676" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1676" s="1" t="s">
         <v>500</v>
       </c>
@@ -44091,7 +44091,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1759" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1759" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1759" s="1" t="s">
         <v>500</v>
       </c>
@@ -44117,7 +44117,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="1760" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1760" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1760" s="1" t="s">
         <v>500</v>
       </c>
@@ -50230,7 +50230,9 @@
     </filterColumn>
     <filterColumn colId="2">
       <filters>
-        <filter val="10a"/>
+        <filter val="46"/>
+        <filter val="57VLä"/>
+        <filter val="59Lä"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/L_Projektionswege_im_Klimawandel_18022020_export.xlsx
+++ b/L_Projektionswege_im_Klimawandel_18022020_export.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\develops\sensitivewaldstandorteCH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F763FB-674C-4C01-AC6F-616E9BF5F967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BDF1F9A-49ED-491A-B3CC-D75FD7F132C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53730" yWindow="1410" windowWidth="21690" windowHeight="19530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="49245" yWindow="975" windowWidth="21690" windowHeight="19530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TreeApp_export" sheetId="9" r:id="rId1"/>
@@ -18,10 +18,21 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TreeApp_export!$A$1:$J$2002</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1945,7 +1956,7 @@
   <dimension ref="A1:J2002"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A189" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -6377,7 +6388,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>500</v>
       </c>
@@ -6403,7 +6414,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>500</v>
       </c>
@@ -6429,7 +6440,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>500</v>
       </c>
@@ -6451,7 +6462,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>500</v>
       </c>
@@ -6473,7 +6484,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>500</v>
       </c>
@@ -6495,7 +6506,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>500</v>
       </c>
@@ -6517,7 +6528,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>500</v>
       </c>
@@ -6545,7 +6556,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>500</v>
       </c>
@@ -6573,7 +6584,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>500</v>
       </c>
@@ -6601,7 +6612,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>500</v>
       </c>
@@ -6625,7 +6636,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>500</v>
       </c>
@@ -22221,7 +22232,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="842" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A842" s="1" t="s">
         <v>500</v>
       </c>
@@ -22245,7 +22256,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="843" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A843" s="1" t="s">
         <v>500</v>
       </c>
@@ -22267,7 +22278,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="844" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A844" s="1" t="s">
         <v>500</v>
       </c>
@@ -22289,7 +22300,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="845" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A845" s="1" t="s">
         <v>500</v>
       </c>
@@ -22317,7 +22328,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="846" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A846" s="1" t="s">
         <v>500</v>
       </c>
@@ -22343,7 +22354,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="847" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A847" s="1" t="s">
         <v>500</v>
       </c>
@@ -22369,7 +22380,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="848" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A848" s="1" t="s">
         <v>500</v>
       </c>
@@ -22393,7 +22404,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="849" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A849" s="1" t="s">
         <v>500</v>
       </c>
@@ -41899,7 +41910,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="1675" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1675" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1675" s="1" t="s">
         <v>500</v>
       </c>
@@ -41929,7 +41940,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="1676" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1676" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1676" s="1" t="s">
         <v>500</v>
       </c>
@@ -44091,7 +44102,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1759" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1759" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1759" s="1" t="s">
         <v>500</v>
       </c>
@@ -44117,7 +44128,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="1760" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1760" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1760" s="1" t="s">
         <v>500</v>
       </c>
@@ -50230,9 +50241,7 @@
     </filterColumn>
     <filterColumn colId="2">
       <filters>
-        <filter val="46"/>
-        <filter val="57VLä"/>
-        <filter val="59Lä"/>
+        <filter val="32C"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/L_Projektionswege_im_Klimawandel_18022020_export.xlsx
+++ b/L_Projektionswege_im_Klimawandel_18022020_export.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\develops\sensitivewaldstandorteCH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BDF1F9A-49ED-491A-B3CC-D75FD7F132C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C17A14F-F3F8-4024-A33D-A5EFDF451C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49245" yWindow="975" windowWidth="21690" windowHeight="19530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="55110" yWindow="1620" windowWidth="21690" windowHeight="19530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TreeApp_export" sheetId="9" r:id="rId1"/>
@@ -1956,7 +1956,7 @@
   <dimension ref="A1:J2002"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -2594,7 +2594,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>500</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>500</v>
       </c>
@@ -2646,7 +2646,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>500</v>
       </c>
@@ -22232,7 +22232,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="842" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A842" s="1" t="s">
         <v>500</v>
       </c>
@@ -22256,7 +22256,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="843" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A843" s="1" t="s">
         <v>500</v>
       </c>
@@ -22278,7 +22278,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="844" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A844" s="1" t="s">
         <v>500</v>
       </c>
@@ -22300,7 +22300,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="845" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A845" s="1" t="s">
         <v>500</v>
       </c>
@@ -22328,7 +22328,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="846" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A846" s="1" t="s">
         <v>500</v>
       </c>
@@ -22354,7 +22354,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="847" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A847" s="1" t="s">
         <v>500</v>
       </c>
@@ -22380,7 +22380,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="848" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A848" s="1" t="s">
         <v>500</v>
       </c>
@@ -22404,7 +22404,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="849" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A849" s="1" t="s">
         <v>500</v>
       </c>
@@ -50241,7 +50241,7 @@
     </filterColumn>
     <filterColumn colId="2">
       <filters>
-        <filter val="32C"/>
+        <filter val="16"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/L_Projektionswege_im_Klimawandel_18022020_export.xlsx
+++ b/L_Projektionswege_im_Klimawandel_18022020_export.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\develops\sensitivewaldstandorteCH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C17A14F-F3F8-4024-A33D-A5EFDF451C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A4186C-A64F-4508-A092-EAB0E4336389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="55110" yWindow="1620" windowWidth="21690" windowHeight="19530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="48705" yWindow="750" windowWidth="27900" windowHeight="20220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TreeApp_export" sheetId="9" r:id="rId1"/>
@@ -1956,7 +1956,7 @@
   <dimension ref="A1:J2002"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -2594,7 +2594,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>500</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>500</v>
       </c>
@@ -2646,7 +2646,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>500</v>
       </c>
@@ -5632,7 +5632,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>500</v>
       </c>
@@ -9770,7 +9770,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="327" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>500</v>
       </c>
@@ -9794,7 +9794,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="328" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>500</v>
       </c>
@@ -9816,7 +9816,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="329" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>500</v>
       </c>
@@ -9838,7 +9838,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="330" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>500</v>
       </c>
@@ -9866,7 +9866,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="331" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>500</v>
       </c>
@@ -9894,7 +9894,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="332" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>500</v>
       </c>
@@ -9920,7 +9920,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="333" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>500</v>
       </c>
@@ -9946,7 +9946,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="334" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>500</v>
       </c>
@@ -9970,7 +9970,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="335" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>500</v>
       </c>
@@ -26626,7 +26626,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="1034" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1034" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1034" s="1" t="s">
         <v>500</v>
       </c>
@@ -26652,7 +26652,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="1035" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1035" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1035" s="1" t="s">
         <v>500</v>
       </c>
@@ -26676,7 +26676,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="1036" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1036" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1036" s="1" t="s">
         <v>500</v>
       </c>
@@ -26700,7 +26700,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="1037" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1037" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1037" s="1" t="s">
         <v>500</v>
       </c>
@@ -46744,7 +46744,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="1861" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1861" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1861" s="1" t="s">
         <v>500</v>
       </c>
@@ -46768,7 +46768,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="1862" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1862" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1862" s="1" t="s">
         <v>500</v>
       </c>
@@ -46790,7 +46790,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="1863" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1863" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1863" s="1" t="s">
         <v>500</v>
       </c>
@@ -46812,7 +46812,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="1864" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1864" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1864" s="1" t="s">
         <v>500</v>
       </c>
@@ -46840,7 +46840,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="1865" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1865" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1865" s="1" t="s">
         <v>500</v>
       </c>
@@ -50241,7 +50241,10 @@
     </filterColumn>
     <filterColumn colId="2">
       <filters>
-        <filter val="16"/>
+        <filter val="38"/>
+        <filter val="40*"/>
+        <filter val="65"/>
+        <filter val="65*"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/L_Projektionswege_im_Klimawandel_18022020_export.xlsx
+++ b/L_Projektionswege_im_Klimawandel_18022020_export.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\develops\sensitivewaldstandorteCH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A4186C-A64F-4508-A092-EAB0E4336389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B7DB28-422F-4FF4-B99F-290FB7828808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48705" yWindow="750" windowWidth="27900" windowHeight="20220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39195" yWindow="11175" windowWidth="27900" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TreeApp_export" sheetId="9" r:id="rId1"/>
@@ -1956,7 +1956,7 @@
   <dimension ref="A1:J2002"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -4474,7 +4474,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>500</v>
       </c>
@@ -4500,7 +4500,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>500</v>
       </c>
@@ -5632,7 +5632,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>500</v>
       </c>
@@ -9770,7 +9770,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>500</v>
       </c>
@@ -9794,7 +9794,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>500</v>
       </c>
@@ -9816,7 +9816,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>500</v>
       </c>
@@ -9838,7 +9838,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>500</v>
       </c>
@@ -9866,7 +9866,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>500</v>
       </c>
@@ -9894,7 +9894,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>500</v>
       </c>
@@ -9920,7 +9920,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>500</v>
       </c>
@@ -9946,7 +9946,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>500</v>
       </c>
@@ -9970,7 +9970,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>500</v>
       </c>
@@ -26626,7 +26626,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="1034" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1034" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1034" s="1" t="s">
         <v>500</v>
       </c>
@@ -26652,7 +26652,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="1035" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1035" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1035" s="1" t="s">
         <v>500</v>
       </c>
@@ -26676,7 +26676,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="1036" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1036" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1036" s="1" t="s">
         <v>500</v>
       </c>
@@ -26700,7 +26700,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="1037" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1037" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1037" s="1" t="s">
         <v>500</v>
       </c>
@@ -46744,7 +46744,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="1861" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1861" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1861" s="1" t="s">
         <v>500</v>
       </c>
@@ -46768,7 +46768,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="1862" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1862" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1862" s="1" t="s">
         <v>500</v>
       </c>
@@ -46790,7 +46790,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="1863" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1863" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1863" s="1" t="s">
         <v>500</v>
       </c>
@@ -46812,7 +46812,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="1864" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1864" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1864" s="1" t="s">
         <v>500</v>
       </c>
@@ -46840,7 +46840,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="1865" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1865" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1865" s="1" t="s">
         <v>500</v>
       </c>
@@ -50241,10 +50241,7 @@
     </filterColumn>
     <filterColumn colId="2">
       <filters>
-        <filter val="38"/>
-        <filter val="40*"/>
-        <filter val="65"/>
-        <filter val="65*"/>
+        <filter val="29"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/L_Projektionswege_im_Klimawandel_18022020_export.xlsx
+++ b/L_Projektionswege_im_Klimawandel_18022020_export.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\develops\sensitivewaldstandorteCH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B7DB28-422F-4FF4-B99F-290FB7828808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768BA618-DF7B-4654-902C-3FF51A92A261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39195" yWindow="11175" windowWidth="27900" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39450" yWindow="13710" windowWidth="27900" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TreeApp_export" sheetId="9" r:id="rId1"/>
@@ -1956,7 +1956,7 @@
   <dimension ref="A1:J2002"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -4474,7 +4474,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>500</v>
       </c>
@@ -4500,7 +4500,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>500</v>
       </c>
@@ -6090,7 +6090,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>500</v>
       </c>
@@ -6116,7 +6116,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>500</v>
       </c>
@@ -6140,7 +6140,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>502</v>
       </c>
@@ -6162,7 +6162,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>504</v>
       </c>
@@ -6184,7 +6184,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>504</v>
       </c>
@@ -6206,7 +6206,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>504</v>
       </c>
@@ -6228,7 +6228,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>504</v>
       </c>
@@ -6250,7 +6250,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>504</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>504</v>
       </c>
@@ -6294,7 +6294,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>504</v>
       </c>
@@ -6316,7 +6316,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>504</v>
       </c>
@@ -50234,14 +50234,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J2002" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="R, J, M, 1, 2, 3 osa bis co"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="2">
       <filters>
-        <filter val="29"/>
+        <filter val="44"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/L_Projektionswege_im_Klimawandel_18022020_export.xlsx
+++ b/L_Projektionswege_im_Klimawandel_18022020_export.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\develops\sensitivewaldstandorteCH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768BA618-DF7B-4654-902C-3FF51A92A261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4658C0D6-7047-4C81-AF7E-C7D083103F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39450" yWindow="13710" windowWidth="27900" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38415" yWindow="0" windowWidth="20070" windowHeight="20835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TreeApp_export" sheetId="9" r:id="rId1"/>
@@ -1956,8 +1956,8 @@
   <dimension ref="A1:J2002"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <pane ySplit="1" topLeftCell="A1782" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J943" sqref="J943"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6090,7 +6090,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>500</v>
       </c>
@@ -6116,7 +6116,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>500</v>
       </c>
@@ -6140,7 +6140,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>502</v>
       </c>
@@ -6162,7 +6162,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>504</v>
       </c>
@@ -6184,7 +6184,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>504</v>
       </c>
@@ -6206,7 +6206,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>504</v>
       </c>
@@ -6228,7 +6228,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>504</v>
       </c>
@@ -6250,7 +6250,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>504</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>504</v>
       </c>
@@ -6294,7 +6294,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>504</v>
       </c>
@@ -6316,7 +6316,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>504</v>
       </c>
@@ -44690,7 +44690,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="1782" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1782" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1782" s="1" t="s">
         <v>500</v>
       </c>
@@ -44720,7 +44720,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="1783" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1783" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1783" s="1" t="s">
         <v>500</v>
       </c>
@@ -44750,7 +44750,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1784" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1784" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1784" s="1" t="s">
         <v>500</v>
       </c>
@@ -44780,7 +44780,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="1785" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1785" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1785" s="1" t="s">
         <v>500</v>
       </c>
@@ -44810,7 +44810,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="1786" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1786" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1786" s="1" t="s">
         <v>500</v>
       </c>
@@ -44834,7 +44834,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1787" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1787" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1787" s="1" t="s">
         <v>500</v>
       </c>
@@ -44858,7 +44858,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1788" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1788" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1788" s="1" t="s">
         <v>500</v>
       </c>
@@ -44880,7 +44880,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="1789" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1789" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1789" s="1" t="s">
         <v>500</v>
       </c>
@@ -44902,7 +44902,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="1790" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1790" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1790" s="1" t="s">
         <v>500</v>
       </c>
@@ -44924,7 +44924,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="1791" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1791" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1791" s="1" t="s">
         <v>500</v>
       </c>
@@ -44946,7 +44946,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="1792" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1792" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1792" s="1" t="s">
         <v>500</v>
       </c>
@@ -44974,7 +44974,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="1793" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1793" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1793" s="1" t="s">
         <v>500</v>
       </c>
@@ -45002,7 +45002,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="1794" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1794" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1794" s="1" t="s">
         <v>500</v>
       </c>
@@ -45026,7 +45026,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="1795" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1795" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1795" s="1" t="s">
         <v>500</v>
       </c>
@@ -45050,7 +45050,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="1796" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1796" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1796" s="1" t="s">
         <v>503</v>
       </c>
@@ -45076,7 +45076,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="1797" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1797" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1797" s="1" t="s">
         <v>503</v>
       </c>
@@ -45102,7 +45102,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="1798" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1798" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1798" s="1" t="s">
         <v>504</v>
       </c>
@@ -45126,7 +45126,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="1799" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1799" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1799" s="1" t="s">
         <v>504</v>
       </c>
@@ -50236,7 +50236,7 @@
   <autoFilter ref="A1:J2002" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="2">
       <filters>
-        <filter val="44"/>
+        <filter val="60*"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/L_Projektionswege_im_Klimawandel_18022020_export.xlsx
+++ b/L_Projektionswege_im_Klimawandel_18022020_export.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\develops\sensitivewaldstandorteCH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4658C0D6-7047-4C81-AF7E-C7D083103F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99B26B1-1530-4218-9854-25E2955BEB59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38415" yWindow="0" windowWidth="20070" windowHeight="20835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38190" yWindow="1305" windowWidth="16350" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TreeApp_export" sheetId="9" r:id="rId1"/>
@@ -1955,9 +1955,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J2002"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1782" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J943" sqref="J943"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1906" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1906" sqref="A1906"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44690,7 +44690,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="1782" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1782" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1782" s="1" t="s">
         <v>500</v>
       </c>
@@ -44720,7 +44720,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="1783" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1783" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1783" s="1" t="s">
         <v>500</v>
       </c>
@@ -44750,7 +44750,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1784" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1784" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1784" s="1" t="s">
         <v>500</v>
       </c>
@@ -44780,7 +44780,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="1785" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1785" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1785" s="1" t="s">
         <v>500</v>
       </c>
@@ -44810,7 +44810,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="1786" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1786" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1786" s="1" t="s">
         <v>500</v>
       </c>
@@ -44834,7 +44834,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1787" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1787" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1787" s="1" t="s">
         <v>500</v>
       </c>
@@ -44858,7 +44858,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1788" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1788" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1788" s="1" t="s">
         <v>500</v>
       </c>
@@ -44880,7 +44880,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="1789" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1789" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1789" s="1" t="s">
         <v>500</v>
       </c>
@@ -44902,7 +44902,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="1790" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1790" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1790" s="1" t="s">
         <v>500</v>
       </c>
@@ -44924,7 +44924,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="1791" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1791" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1791" s="1" t="s">
         <v>500</v>
       </c>
@@ -44946,7 +44946,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="1792" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1792" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1792" s="1" t="s">
         <v>500</v>
       </c>
@@ -44974,7 +44974,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="1793" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1793" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1793" s="1" t="s">
         <v>500</v>
       </c>
@@ -45002,7 +45002,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="1794" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1794" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1794" s="1" t="s">
         <v>500</v>
       </c>
@@ -45026,7 +45026,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="1795" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1795" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1795" s="1" t="s">
         <v>500</v>
       </c>
@@ -45050,7 +45050,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="1796" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1796" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1796" s="1" t="s">
         <v>503</v>
       </c>
@@ -45076,7 +45076,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="1797" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1797" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1797" s="1" t="s">
         <v>503</v>
       </c>
@@ -45102,7 +45102,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="1798" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1798" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1798" s="1" t="s">
         <v>504</v>
       </c>
@@ -45126,7 +45126,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="1799" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1799" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1799" s="1" t="s">
         <v>504</v>
       </c>
@@ -47876,7 +47876,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="1906" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1906" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1906" s="1" t="s">
         <v>500</v>
       </c>
@@ -47902,7 +47902,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="1907" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1907" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1907" s="1" t="s">
         <v>500</v>
       </c>
@@ -47932,7 +47932,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="1908" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1908" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1908" s="1" t="s">
         <v>500</v>
       </c>
@@ -47962,7 +47962,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="1909" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1909" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1909" s="1" t="s">
         <v>500</v>
       </c>
@@ -47992,7 +47992,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="1910" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1910" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1910" s="1" t="s">
         <v>500</v>
       </c>
@@ -48016,7 +48016,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="1911" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1911" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1911" s="1" t="s">
         <v>500</v>
       </c>
@@ -48038,7 +48038,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="1912" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1912" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1912" s="1" t="s">
         <v>500</v>
       </c>
@@ -48060,7 +48060,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="1913" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1913" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1913" s="1" t="s">
         <v>500</v>
       </c>
@@ -48088,7 +48088,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="1914" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1914" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1914" s="1" t="s">
         <v>500</v>
       </c>
@@ -48112,7 +48112,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="1915" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1915" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1915" s="1" t="s">
         <v>503</v>
       </c>
@@ -48138,7 +48138,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="1916" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1916" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1916" s="1" t="s">
         <v>503</v>
       </c>
@@ -48164,7 +48164,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="1917" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1917" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1917" s="1" t="s">
         <v>504</v>
       </c>
@@ -48188,7 +48188,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="1918" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1918" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1918" s="1" t="s">
         <v>504</v>
       </c>
@@ -48212,7 +48212,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="1919" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1919" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1919" s="1" t="s">
         <v>504</v>
       </c>
@@ -50236,7 +50236,7 @@
   <autoFilter ref="A1:J2002" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="2">
       <filters>
-        <filter val="60*"/>
+        <filter val="70G"/>
       </filters>
     </filterColumn>
   </autoFilter>
